--- a/templates/project_export_template.xlsx
+++ b/templates/project_export_template.xlsx
@@ -33,7 +33,7 @@
     <t>Number of days</t>
   </si>
   <si>
-    <t>No. of projects</t>
+    <t>Total days</t>
   </si>
 </sst>
 </file>
@@ -117,10 +117,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,7 +416,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,27 +432,27 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/project_export_template.xlsx
+++ b/templates/project_export_template.xlsx
@@ -30,10 +30,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Number of days</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Total days</t>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
@@ -416,7 +416,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -450,7 +450,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
     </row>
